--- a/Analyzed/raw/data_2011.xlsx
+++ b/Analyzed/raw/data_2011.xlsx
@@ -537,13 +537,13 @@
         <v>3</v>
       </c>
       <c r="S2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T2">
         <v>2</v>
       </c>
       <c r="U2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V2">
         <v>1</v>
@@ -619,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3">
         <v>2</v>
@@ -689,19 +689,19 @@
         <v>1</v>
       </c>
       <c r="S4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4">
         <v>1</v>
       </c>
       <c r="U4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="X4">
         <v>2</v>
@@ -771,13 +771,13 @@
         <v>2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
         <v>1</v>
       </c>
       <c r="W5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X5">
         <v>3</v>
@@ -841,16 +841,16 @@
         <v>2</v>
       </c>
       <c r="S6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T6">
         <v>1</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
         <v>3</v>
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V7">
         <v>2</v>
@@ -993,19 +993,19 @@
         <v>1</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8">
         <v>1</v>
       </c>
       <c r="U8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
         <v>0</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1014,7 +1014,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>넥센 히어로즈</t>
+          <t>키움 히어로즈</t>
         </is>
       </c>
       <c r="B9">
@@ -1038,6 +1038,30 @@
       <c r="H9">
         <v>0.389</v>
       </c>
+      <c r="I9">
+        <v>27.13</v>
+      </c>
+      <c r="J9">
+        <v>2019</v>
+      </c>
+      <c r="K9">
+        <v>1476.947</v>
+      </c>
+      <c r="L9">
+        <v>507</v>
+      </c>
+      <c r="M9">
+        <v>73.64266923231334</v>
+      </c>
+      <c r="N9">
+        <v>660.7</v>
+      </c>
+      <c r="O9">
+        <v>1034.56</v>
+      </c>
+      <c r="P9">
+        <v>2760.6</v>
+      </c>
       <c r="Q9">
         <v>8</v>
       </c>
@@ -1045,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9">
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X9">
         <v>0</v>
